--- a/cypress/e2e/variables/envDesignEU000010500028.xlsx
+++ b/cypress/e2e/variables/envDesignEU000010500028.xlsx
@@ -55,7 +55,7 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>
-              <text:a xlink:href="https://qsgbcz.docker.localhost/login#login" xlink:type="simple">https://qsgbcz.docker.localhost/login#login</text:a>
+              <text:a xlink:href="https://qsgbcz.lmnas.com/login#login" xlink:type="simple">https://qsgbcz.lmnas.com/login#login</text:a>
             </text:p>
           </table:table-cell>
         </table:table-row>
@@ -65,7 +65,7 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>
-              <text:a xlink:href="https://qsgbcz.docker.localhost/app/design" xlink:type="simple">https://qsgbcz.docker.localhost/app/design</text:a>
+              <text:a xlink:href="https://qsgbcz.lmnas.com/app/design" xlink:type="simple">https://qsgbcz.lmnas.com/app/design</text:a>
             </text:p>
           </table:table-cell>
         </table:table-row>
@@ -99,7 +99,7 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>
-              <text:a xlink:href="https://qsgbcz.docker.localhost/app/design?status=Calculation%20Received" xlink:type="simple">https://qsgbcz.docker.localhost/app/design?status=Calculation%20Received</text:a>
+              <text:a xlink:href="https://qsgbcz.lmnas.com/app/design?status=Calculation%20Received" xlink:type="simple">https://qsgbcz.lmnas.com/app/design?status=Calculation%20Received</text:a>
             </text:p>
           </table:table-cell>
         </table:table-row>
@@ -109,7 +109,7 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>
-              <text:a xlink:href="https://qsgbcz.docker.localhost/app/design?status=Calculation%20Received" xlink:type="simple">https://qsgbcz.docker.localhost/app/design?status=Calculation%20Received</text:a>
+              <text:a xlink:href="https://qsgbcz.lmnas.com/app/design?status=Calculation%20Received" xlink:type="simple">https://qsgbcz.lmnas.com/app/design?status=Calculation%20Received</text:a>
             </text:p>
           </table:table-cell>
         </table:table-row>
@@ -119,7 +119,7 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>
-              <text:a xlink:href="https://qsgbcz.docker.localhost/app/design?status=Item%20Created" xlink:type="simple">https://qsgbcz.docker.localhost/app/design?status=Item%20Created</text:a>
+              <text:a xlink:href="https://qsgbcz.lmnas.com/app/design?status=Item%20Created" xlink:type="simple">https://qsgbcz.lmnas.com/app/design?status=Item%20Created</text:a>
             </text:p>
           </table:table-cell>
         </table:table-row>
@@ -129,7 +129,7 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>
-              <text:a xlink:href="https://qsgbcz.docker.localhost/app/design?status=Item%20Updated" xlink:type="simple">https://qsgbcz.docker.localhost/app/design?status=Item%20Updated</text:a>
+              <text:a xlink:href="https://qsgbcz.lmnas.com/app/design?status=Item%20Updated" xlink:type="simple">https://qsgbcz.lmnas.com/app/design?status=Item%20Updated</text:a>
             </text:p>
           </table:table-cell>
         </table:table-row>
@@ -180,9 +180,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2024-10-24T15:52:03.287402091</meta:creation-date>
-    <dc:date>2024-11-07T12:44:08.604743814</dc:date>
-    <meta:editing-duration>PT10H57M28S</meta:editing-duration>
-    <meta:editing-cycles>35</meta:editing-cycles>
+    <dc:date>2024-11-25T16:54:55.848706775</dc:date>
+    <meta:editing-duration>PT11H2M36S</meta:editing-duration>
+    <meta:editing-cycles>36</meta:editing-cycles>
     <meta:generator>LibreOffice/7.3.7.2$Linux_X86_64 LibreOffice_project/30$Build-2</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="28" meta:object-count="0"/>
   </office:meta>
@@ -202,8 +202,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">10</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">33</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">23</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -264,7 +264,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">pAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAxQAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6TGV0dGVyAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">pAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAxQAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6TGV0dGVyAER1cGxleDpOb25lAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1000</config:config-item>
